--- a/Istiqlal/Sekolah/SMA/Tahfidz 2022/Tahfidz.xlsx
+++ b/Istiqlal/Sekolah/SMA/Tahfidz 2022/Tahfidz.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ichsan\design\Istiqlal\Sekolah\SMA\Tahfidz 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B85F573-FD72-4F10-8B11-F53A5044BB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F722C90B-3314-4699-AC39-380F0B98348A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4463CE1E-FC2A-44F2-8725-858A33D9EF0F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>PREDIKAT : 90 - 95</t>
   </si>
@@ -125,6 +125,15 @@
   </si>
   <si>
     <t>27&amp;28</t>
+  </si>
+  <si>
+    <t>Salwa Az Zahra</t>
+  </si>
+  <si>
+    <t>Indrawiananda Nur Sandrina</t>
+  </si>
+  <si>
+    <t>Syahrani Subagyo</t>
   </si>
 </sst>
 </file>
@@ -507,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DBEBCC-A534-4604-BF66-38EAAD8CCA32}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,6 +783,62 @@
         <v>82</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Istiqlal/Sekolah/SMA/Tahfidz 2022/Tahfidz.xlsx
+++ b/Istiqlal/Sekolah/SMA/Tahfidz 2022/Tahfidz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ichsan\design\Istiqlal\Sekolah\SMA\Tahfidz 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F722C90B-3314-4699-AC39-380F0B98348A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E57435A-030F-4602-AEE0-CC1970F37CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4463CE1E-FC2A-44F2-8725-858A33D9EF0F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>PREDIKAT : 90 - 95</t>
   </si>
@@ -516,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DBEBCC-A534-4604-BF66-38EAAD8CCA32}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,6 +839,34 @@
         <v>80</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Istiqlal/Sekolah/SMA/Tahfidz 2022/Tahfidz.xlsx
+++ b/Istiqlal/Sekolah/SMA/Tahfidz 2022/Tahfidz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ichsan\design\Istiqlal\Sekolah\SMA\Tahfidz 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E57435A-030F-4602-AEE0-CC1970F37CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E64074-4A13-4C26-91EC-A919A898AD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4463CE1E-FC2A-44F2-8725-858A33D9EF0F}"/>
   </bookViews>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DBEBCC-A534-4604-BF66-38EAAD8CCA32}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Istiqlal/Sekolah/SMA/Tahfidz 2022/Tahfidz.xlsx
+++ b/Istiqlal/Sekolah/SMA/Tahfidz 2022/Tahfidz.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ichsan\design\Istiqlal\Sekolah\SMA\Tahfidz 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ichsan\Design\Istiqlal\Sekolah\SMA\Tahfidz 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E64074-4A13-4C26-91EC-A919A898AD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60C7804-2C20-4158-9ECD-38730F3A6380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4463CE1E-FC2A-44F2-8725-858A33D9EF0F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{4463CE1E-FC2A-44F2-8725-858A33D9EF0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
   <si>
     <t>PREDIKAT : 90 - 95</t>
   </si>
@@ -134,13 +135,67 @@
   </si>
   <si>
     <t>Syahrani Subagyo</t>
+  </si>
+  <si>
+    <t>Cahya Finizar</t>
+  </si>
+  <si>
+    <t>Fahreza Firdaus. A</t>
+  </si>
+  <si>
+    <t>Hafidhah Zalfa. F</t>
+  </si>
+  <si>
+    <t>Nabilah Choirunnisa</t>
+  </si>
+  <si>
+    <t>Salwa Az Zahrah</t>
+  </si>
+  <si>
+    <t>Zahrifa Saumi Rahma. D</t>
+  </si>
+  <si>
+    <t>Rufaidah nisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nayla Alfarapasha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zahra Afifah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habibah Kayysa Syakura </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naiya Salsabila </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jihan Khansa Juniarti </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indrawiananda Nur Sandrina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syahrani Subagyo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zayda Zafirah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syieva Alline Nathasyavva </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nabilla Al Pasha </t>
+  </si>
+  <si>
+    <t>Hadits</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,13 +216,51 @@
       <name val="Andalus"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -194,17 +287,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{20588A40-43F6-410B-A8F3-22EFA6A1F41A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -518,16 +626,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DBEBCC-A534-4604-BF66-38EAAD8CCA32}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -541,7 +649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="36" x14ac:dyDescent="0.8">
+    <row r="2" spans="1:14" ht="37.200000000000003" x14ac:dyDescent="1.05">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -563,7 +671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="36" x14ac:dyDescent="0.8">
+    <row r="3" spans="1:14" ht="37.200000000000003" x14ac:dyDescent="1.05">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -585,7 +693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="36" x14ac:dyDescent="0.8">
+    <row r="4" spans="1:14" ht="37.200000000000003" x14ac:dyDescent="1.05">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -607,7 +715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="36" x14ac:dyDescent="0.8">
+    <row r="5" spans="1:14" ht="37.200000000000003" x14ac:dyDescent="1.05">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -629,7 +737,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -643,7 +751,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -657,7 +765,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -671,7 +779,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -685,7 +793,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -699,7 +807,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -713,7 +821,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -727,7 +835,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -741,7 +849,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -755,7 +863,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -769,7 +877,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -783,7 +891,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -797,7 +905,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -811,7 +919,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -825,7 +933,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -839,7 +947,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -853,7 +961,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -865,6 +973,329 @@
       </c>
       <c r="D22">
         <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B05A1EC-749D-4645-9CED-D09EC1096D0F}">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="4">
+        <v>100</v>
+      </c>
+      <c r="C2" s="8">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4">
+        <v>100</v>
+      </c>
+      <c r="C3" s="9">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="4">
+        <v>100</v>
+      </c>
+      <c r="C4" s="9">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4">
+        <v>100</v>
+      </c>
+      <c r="C5" s="9">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="4">
+        <v>100</v>
+      </c>
+      <c r="C6" s="9">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4">
+        <v>100</v>
+      </c>
+      <c r="C7" s="9">
+        <v>97</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4">
+        <v>100</v>
+      </c>
+      <c r="C8" s="9">
+        <v>80</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="4">
+        <v>100</v>
+      </c>
+      <c r="C9" s="9">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="4">
+        <v>100</v>
+      </c>
+      <c r="C11" s="9">
+        <v>97</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="4">
+        <v>100</v>
+      </c>
+      <c r="C12" s="9">
+        <v>94</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="4">
+        <v>100</v>
+      </c>
+      <c r="C15" s="9">
+        <v>83</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="4">
+        <v>100</v>
+      </c>
+      <c r="C16" s="9">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="4">
+        <v>100</v>
+      </c>
+      <c r="C17" s="9">
+        <v>97</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="4">
+        <v>100</v>
+      </c>
+      <c r="C18" s="9">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="4">
+        <v>100</v>
+      </c>
+      <c r="C19" s="9">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="4">
+        <v>100</v>
+      </c>
+      <c r="C20" s="9">
+        <v>83</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="4">
+        <v>100</v>
+      </c>
+      <c r="C21" s="9">
+        <v>98</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="4">
+        <v>100</v>
+      </c>
+      <c r="C22" s="9">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J26" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Istiqlal/Sekolah/SMA/Tahfidz 2022/Tahfidz.xlsx
+++ b/Istiqlal/Sekolah/SMA/Tahfidz 2022/Tahfidz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ichsan\Design\Istiqlal\Sekolah\SMA\Tahfidz 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60C7804-2C20-4158-9ECD-38730F3A6380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E273C122-F47E-4C0B-89C4-FE13BF59923B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{4463CE1E-FC2A-44F2-8725-858A33D9EF0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{4463CE1E-FC2A-44F2-8725-858A33D9EF0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="51">
   <si>
     <t>PREDIKAT : 90 - 95</t>
   </si>
@@ -630,12 +630,12 @@
       <selection activeCell="N2" sqref="N2:N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -649,7 +649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="37.200000000000003" x14ac:dyDescent="1.05">
+    <row r="2" spans="1:14" ht="36" x14ac:dyDescent="0.8">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -671,7 +671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="37.200000000000003" x14ac:dyDescent="1.05">
+    <row r="3" spans="1:14" ht="36" x14ac:dyDescent="0.8">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -693,7 +693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="37.200000000000003" x14ac:dyDescent="1.05">
+    <row r="4" spans="1:14" ht="36" x14ac:dyDescent="0.8">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -715,7 +715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="37.200000000000003" x14ac:dyDescent="1.05">
+    <row r="5" spans="1:14" ht="36" x14ac:dyDescent="0.8">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -737,7 +737,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -751,7 +751,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -765,7 +765,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -779,7 +779,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -793,7 +793,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -807,7 +807,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -821,7 +821,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -835,7 +835,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -849,7 +849,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -863,7 +863,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -877,7 +877,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -891,7 +891,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -905,7 +905,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -919,7 +919,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -933,7 +933,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -947,7 +947,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -961,7 +961,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -985,16 +985,16 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>34</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>37</v>
       </c>
@@ -1117,14 +1117,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="10"/>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>38</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>39</v>
       </c>
@@ -1152,21 +1152,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>100</v>
+      </c>
+      <c r="C13" s="10">
+        <v>86</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="10"/>
     </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>42</v>
       </c>
@@ -1180,7 +1187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>43</v>
       </c>
@@ -1194,7 +1201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>44</v>
       </c>
@@ -1208,7 +1215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>45</v>
       </c>
@@ -1222,7 +1229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>46</v>
       </c>
@@ -1236,7 +1243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>47</v>
       </c>
@@ -1250,7 +1257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>48</v>
       </c>
@@ -1264,7 +1271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>49</v>
       </c>
@@ -1278,22 +1285,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>7</v>
       </c>
